--- a/cat-zson/src/main/resources/excel/cw.宠物属性资质.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物属性资质.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>key</t>
   </si>
@@ -87,6 +87,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
     <t>readme</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>资质类型</t>
+  </si>
+  <si>
+    <t>权重</t>
   </si>
   <si>
     <t>备注</t>
@@ -149,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -176,9 +182,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,21 +211,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +265,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,84 +320,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,12 +388,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,55 +490,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,109 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,8 +615,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +647,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,47 +684,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +700,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1230,18 +1236,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:5">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,70 +1263,83 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1331,13 +1350,16 @@
       <c r="D6" s="2">
         <v>180</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
+      <c r="E6" s="2">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1348,11 +1370,14 @@
       <c r="D7" s="2">
         <v>240</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
+      <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -1363,11 +1388,14 @@
       <c r="D8" s="2">
         <v>319</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:5">
+      <c r="E8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -1378,11 +1406,14 @@
       <c r="D9" s="2">
         <v>380</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:5">
+      <c r="E9" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>5</v>
@@ -1393,11 +1424,14 @@
       <c r="D10" s="2">
         <v>396</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:5">
+      <c r="E10" s="2">
+        <v>500</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -1408,13 +1442,16 @@
       <c r="D11" s="3">
         <v>180</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:5">
+      <c r="E11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>7</v>
@@ -1425,11 +1462,14 @@
       <c r="D12" s="3">
         <v>240</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:5">
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -1440,11 +1480,14 @@
       <c r="D13" s="3">
         <v>319</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:5">
+      <c r="E13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>9</v>
@@ -1455,11 +1498,14 @@
       <c r="D14" s="3">
         <v>380</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:5">
+      <c r="E14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
@@ -1470,11 +1516,14 @@
       <c r="D15" s="3">
         <v>396</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:5">
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4">
         <v>11</v>
@@ -1485,13 +1534,16 @@
       <c r="D16" s="4">
         <v>180</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:5">
+      <c r="E16" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>12</v>
@@ -1502,11 +1554,14 @@
       <c r="D17" s="4">
         <v>240</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:5">
+      <c r="E17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>13</v>
@@ -1517,11 +1572,14 @@
       <c r="D18" s="4">
         <v>319</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:5">
+      <c r="E18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>14</v>
@@ -1532,11 +1590,14 @@
       <c r="D19" s="4">
         <v>380</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:5">
+      <c r="E19" s="4">
+        <v>1500</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>15</v>
@@ -1547,11 +1608,14 @@
       <c r="D20" s="4">
         <v>396</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:5">
+      <c r="E20" s="4">
+        <v>500</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
         <v>16</v>
@@ -1562,13 +1626,16 @@
       <c r="D21" s="5">
         <v>180</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:5">
+      <c r="E21" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5">
         <v>17</v>
@@ -1579,11 +1646,14 @@
       <c r="D22" s="5">
         <v>240</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:5">
+      <c r="E22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5">
         <v>18</v>
@@ -1594,11 +1664,14 @@
       <c r="D23" s="5">
         <v>319</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:5">
+      <c r="E23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" s="5">
         <v>19</v>
@@ -1609,11 +1682,14 @@
       <c r="D24" s="5">
         <v>380</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:5">
+      <c r="E24" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5">
         <v>20</v>
@@ -1624,11 +1700,14 @@
       <c r="D25" s="5">
         <v>396</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:5">
+      <c r="E25" s="5">
+        <v>500</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6">
         <v>21</v>
@@ -1639,13 +1718,16 @@
       <c r="D26" s="6">
         <v>180</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:5">
+      <c r="E26" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:6">
       <c r="A27" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" s="6">
         <v>22</v>
@@ -1656,11 +1738,14 @@
       <c r="D27" s="6">
         <v>240</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:5">
+      <c r="E27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:6">
       <c r="A28" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" s="6">
         <v>23</v>
@@ -1671,11 +1756,14 @@
       <c r="D28" s="6">
         <v>319</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:5">
+      <c r="E28" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6">
         <v>24</v>
@@ -1686,11 +1774,14 @@
       <c r="D29" s="6">
         <v>380</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:5">
+      <c r="E29" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:6">
       <c r="A30" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" s="6">
         <v>25</v>
@@ -1701,11 +1792,14 @@
       <c r="D30" s="6">
         <v>396</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:5">
+      <c r="E30" s="6">
+        <v>500</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:6">
       <c r="A31" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" s="7">
         <v>26</v>
@@ -1716,13 +1810,16 @@
       <c r="D31" s="7">
         <v>180</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:5">
+      <c r="E31" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:6">
       <c r="A32" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32" s="7">
         <v>27</v>
@@ -1733,11 +1830,14 @@
       <c r="D32" s="7">
         <v>240</v>
       </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:5">
+      <c r="E32" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:6">
       <c r="A33" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B33" s="7">
         <v>28</v>
@@ -1748,11 +1848,14 @@
       <c r="D33" s="7">
         <v>319</v>
       </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:5">
+      <c r="E33" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34" s="7">
         <v>29</v>
@@ -1763,11 +1866,14 @@
       <c r="D34" s="7">
         <v>380</v>
       </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:5">
+      <c r="E34" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B35" s="7">
         <v>30</v>
@@ -1778,7 +1884,10 @@
       <c r="D35" s="7">
         <v>396</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7">
+        <v>500</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cat-zson/src/main/resources/excel/cw.宠物属性资质.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物属性资质.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>key</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>精神资质</t>
+  </si>
+  <si>
+    <t>耐力资质</t>
   </si>
 </sst>
 </file>
@@ -155,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -181,6 +184,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -189,9 +230,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,20 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -225,82 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,17 +307,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +340,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,73 +391,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,109 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +631,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -636,17 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,30 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -704,8 +713,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,140 +738,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +894,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1889,6 +1901,98 @@
       </c>
       <c r="F35" s="7"/>
     </row>
+    <row r="36" ht="16.5" spans="1:6">
+      <c r="A36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8">
+        <v>31</v>
+      </c>
+      <c r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8">
+        <v>180</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:6">
+      <c r="A37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="8">
+        <v>32</v>
+      </c>
+      <c r="C37" s="8">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8">
+        <v>240</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:6">
+      <c r="A38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8">
+        <v>33</v>
+      </c>
+      <c r="C38" s="8">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8">
+        <v>319</v>
+      </c>
+      <c r="E38" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="8">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8">
+        <v>107</v>
+      </c>
+      <c r="D39" s="8">
+        <v>380</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:6">
+      <c r="A40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="8">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8">
+        <v>107</v>
+      </c>
+      <c r="D40" s="8">
+        <v>396</v>
+      </c>
+      <c r="E40" s="8">
+        <v>500</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
